--- a/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
+++ b/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13180"/>
+    <workbookView windowWidth="28800" windowHeight="13640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+  <si>
+    <t>Area</t>
+  </si>
   <si>
     <t>Place</t>
   </si>
@@ -37,6 +40,9 @@
     <t>Climbing Gym</t>
   </si>
   <si>
+    <t>Luohu</t>
+  </si>
+  <si>
     <t>Kingkey 100</t>
   </si>
   <si>
@@ -46,7 +52,7 @@
     <t>10 ～ 30s</t>
   </si>
   <si>
-    <t>After 7pm, before 10pm</t>
+    <t>After 7pm, before 8pm</t>
   </si>
   <si>
     <t>Planning</t>
@@ -55,28 +61,55 @@
     <t>Need be careful about the net signal and image signal</t>
   </si>
   <si>
-    <t>Blue Sky Luohu</t>
+    <t>Blue Sky Luohu B</t>
+  </si>
+  <si>
+    <t>The Mixc in Luohu</t>
+  </si>
+  <si>
+    <t>Full Shot</t>
+  </si>
+  <si>
+    <t>10 ~ 30s</t>
+  </si>
+  <si>
+    <t>Before 10pm</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Nanshan</t>
   </si>
   <si>
     <t>Tencent Building</t>
   </si>
   <si>
-    <t>Full Shot</t>
-  </si>
-  <si>
-    <t>10 ~ 30s</t>
-  </si>
-  <si>
-    <t>Be careful of the buildings, try to go to the high building to take off the drone</t>
+    <t xml:space="preserve">Be careful of the buildings and the guards </t>
   </si>
   <si>
     <t>Nerd Cave</t>
   </si>
   <si>
-    <t>The Mixc in Luohu</t>
-  </si>
-  <si>
-    <t>Before 10pm</t>
+    <t>Overpass Bridge</t>
+  </si>
+  <si>
+    <t>10 ~ 30</t>
+  </si>
+  <si>
+    <t>Delayed by raining storm</t>
+  </si>
+  <si>
+    <t>TT</t>
+  </si>
+  <si>
+    <t>Hanking Building</t>
+  </si>
+  <si>
+    <t>10s</t>
+  </si>
+  <si>
+    <t>Before 7.15pm</t>
   </si>
   <si>
     <t>Huarun Building</t>
@@ -85,13 +118,40 @@
     <t>Full shot</t>
   </si>
   <si>
-    <t>Before 5.30 am and after 7 pm, before 11pm</t>
-  </si>
-  <si>
-    <t>Nerd Cave / TT</t>
+    <t>Before 5.30 am</t>
+  </si>
+  <si>
+    <t>Before 5.20 am</t>
+  </si>
+  <si>
+    <t>after 7 pm, before 8pm</t>
+  </si>
+  <si>
+    <t>Shenkang Station</t>
   </si>
   <si>
     <t>Shenzhen Bay Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before 5.30 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TT</t>
+  </si>
+  <si>
+    <t>Futian</t>
+  </si>
+  <si>
+    <t>Pingan Building</t>
+  </si>
+  <si>
+    <t>Blue Sky Futian</t>
+  </si>
+  <si>
+    <t>Pingan Building From the costal side</t>
+  </si>
+  <si>
+    <t>before 5.30am, betweeen 6.20 ~ 7.00</t>
   </si>
 </sst>
 </file>
@@ -99,12 +159,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,6 +180,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.4"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -130,28 +211,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,97 +255,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -263,8 +262,90 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -279,61 +360,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,54 +534,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,55 +546,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -470,30 +563,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -508,6 +577,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -547,6 +634,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -561,173 +663,185 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1049,21 +1163,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:Q6"/>
+  <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" zoomScaleNormal="123" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="22.859375" customWidth="1"/>
-    <col min="4" max="4" width="41.28125" customWidth="1"/>
-    <col min="6" max="6" width="60.546875" customWidth="1"/>
-    <col min="7" max="7" width="22.2265625" customWidth="1"/>
+    <col min="2" max="2" width="35.4921875" customWidth="1"/>
+    <col min="5" max="5" width="41.28125" customWidth="1"/>
+    <col min="7" max="7" width="60.546875" customWidth="1"/>
+    <col min="8" max="8" width="22.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1085,144 +1199,343 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2">
-        <v>44342</v>
-      </c>
-      <c r="I1" s="2">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7">
         <v>44343</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="7">
         <v>44344</v>
       </c>
-      <c r="K1" s="2">
+      <c r="K1" s="7">
         <v>44345</v>
       </c>
-      <c r="L1" s="2">
+      <c r="L1" s="7">
         <v>44346</v>
       </c>
-      <c r="M1" s="2">
+      <c r="M1" s="7">
         <v>44347</v>
       </c>
-      <c r="N1" s="2">
+      <c r="N1" s="7">
         <v>44348</v>
       </c>
-      <c r="O1" s="2">
+      <c r="O1" s="7">
         <v>44349</v>
       </c>
-      <c r="P1" s="2">
+      <c r="P1" s="7">
         <v>44350</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="Q1" s="7">
         <v>44351</v>
       </c>
+      <c r="R1" s="7">
+        <v>44352</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="8"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="8"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="C9" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="C12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
+      <c r="H12" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
+    <row r="13" spans="1:6">
+      <c r="A13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
         <v>17</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" t="s">
+    <row r="14" customFormat="1" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
+      <c r="H14" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s">
-        <v>24</v>
+    <row r="15" spans="2:6">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B11:B12"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
+++ b/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>Area</t>
   </si>
@@ -61,22 +61,25 @@
     <t>Need be careful about the net signal and image signal</t>
   </si>
   <si>
+    <t>Blue Sky Luohu A</t>
+  </si>
+  <si>
+    <t>The Mixc in Luohu</t>
+  </si>
+  <si>
+    <t>Full Shot</t>
+  </si>
+  <si>
+    <t>10 ~ 30s</t>
+  </si>
+  <si>
+    <t>Before 10pm</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
     <t>Blue Sky Luohu B</t>
-  </si>
-  <si>
-    <t>The Mixc in Luohu</t>
-  </si>
-  <si>
-    <t>Full Shot</t>
-  </si>
-  <si>
-    <t>10 ~ 30s</t>
-  </si>
-  <si>
-    <t>Before 10pm</t>
-  </si>
-  <si>
-    <t>Done</t>
   </si>
   <si>
     <t>Nanshan</t>
@@ -161,10 +164,10 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,26 +184,19 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="9" tint="0.4"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="9" tint="0.4"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -209,9 +205,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,7 +236,84 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -255,91 +327,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -372,181 +368,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,6 +559,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -581,11 +586,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -595,6 +621,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -616,204 +653,163 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -823,25 +819,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,10 +1156,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:R15"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1177,7 +1170,7 @@
     <col min="8" max="8" width="22.2265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:24">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1202,38 +1195,56 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7">
+      <c r="I1" s="6">
         <v>44343</v>
       </c>
-      <c r="J1" s="7">
+      <c r="J1" s="6">
         <v>44344</v>
       </c>
-      <c r="K1" s="7">
+      <c r="K1" s="6">
         <v>44345</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="6">
         <v>44346</v>
       </c>
-      <c r="M1" s="7">
+      <c r="M1" s="6">
         <v>44347</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>44348</v>
       </c>
-      <c r="O1" s="7">
+      <c r="O1" s="6">
         <v>44349</v>
       </c>
-      <c r="P1" s="7">
+      <c r="P1" s="6">
         <v>44350</v>
       </c>
-      <c r="Q1" s="7">
+      <c r="Q1" s="6">
         <v>44351</v>
       </c>
-      <c r="R1" s="7">
+      <c r="R1" s="6">
         <v>44352</v>
       </c>
+      <c r="S1" s="6">
+        <v>44353</v>
+      </c>
+      <c r="T1" s="6">
+        <v>44354</v>
+      </c>
+      <c r="U1" s="6">
+        <v>44355</v>
+      </c>
+      <c r="V1" s="6">
+        <v>44356</v>
+      </c>
+      <c r="W1" s="6">
+        <v>44357</v>
+      </c>
+      <c r="X1" s="6">
+        <v>44358</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -1258,6 +1269,7 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
+      <c r="W2" s="8"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
@@ -1270,23 +1282,23 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="J3" s="8"/>
+        <v>21</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
@@ -1300,124 +1312,127 @@
       <c r="F4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2"/>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>28</v>
-      </c>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2"/>
-      <c r="B6" s="3" t="s">
-        <v>29</v>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
       </c>
       <c r="C6" t="s">
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
         <v>31</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
+        <v>29</v>
+      </c>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="7"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
+      <c r="E7" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="7"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:20">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F8" t="s">
         <v>13</v>
       </c>
+      <c r="T8" s="8"/>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:22">
       <c r="A9" s="2"/>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="V9" s="8"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1425,18 +1440,18 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="5" t="s">
         <v>12</v>
       </c>
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="8"/>
+      <c r="I10" s="7"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -1444,15 +1459,15 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>39</v>
+      <c r="E11" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="8"/>
+      <c r="I11" s="7"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="C12" t="s">
         <v>17</v>
@@ -1461,21 +1476,22 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F12" t="s">
         <v>13</v>
       </c>
       <c r="H12" t="s">
-        <v>40</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="U12" s="8"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1484,16 +1500,17 @@
         <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
         <v>13</v>
       </c>
+      <c r="V13" s="8"/>
     </row>
-    <row r="14" customFormat="1" spans="1:8">
+    <row r="14" customFormat="1" spans="1:23">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
@@ -1502,18 +1519,19 @@
         <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
       </c>
       <c r="H14" t="s">
-        <v>43</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="W14" s="8"/>
     </row>
-    <row r="15" spans="2:6">
+    <row r="15" spans="2:21">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
@@ -1522,11 +1540,12 @@
         <v>18</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s">
         <v>13</v>
       </c>
+      <c r="U15" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
+++ b/docs/life/projects/magic of shenzhen/Magic of Shenzhen.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13640"/>
+    <workbookView windowWidth="27720" windowHeight="12980" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Head of June" sheetId="1" r:id="rId1"/>
+    <sheet name="Tail of June" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48">
   <si>
     <t>Area</t>
   </si>
@@ -155,6 +156,9 @@
   </si>
   <si>
     <t>before 5.30am, betweeen 6.20 ~ 7.00</t>
+  </si>
+  <si>
+    <t>Upper</t>
   </si>
 </sst>
 </file>
@@ -163,9 +167,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -184,38 +188,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="9" tint="0.4"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -227,6 +232,65 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -236,84 +300,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -327,21 +329,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -356,13 +360,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.25"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,181 +420,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,45 +569,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -620,18 +591,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,123 +649,143 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -784,32 +794,32 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,22 +829,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1158,8 +1180,8 @@
   <sheetPr/>
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1195,52 +1217,52 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6">
+      <c r="I1" s="10">
         <v>44343</v>
       </c>
-      <c r="J1" s="6">
+      <c r="J1" s="10">
         <v>44344</v>
       </c>
-      <c r="K1" s="6">
+      <c r="K1" s="10">
         <v>44345</v>
       </c>
-      <c r="L1" s="6">
+      <c r="L1" s="10">
         <v>44346</v>
       </c>
-      <c r="M1" s="6">
+      <c r="M1" s="10">
         <v>44347</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="10">
         <v>44348</v>
       </c>
-      <c r="O1" s="6">
+      <c r="O1" s="10">
         <v>44349</v>
       </c>
-      <c r="P1" s="6">
+      <c r="P1" s="10">
         <v>44350</v>
       </c>
-      <c r="Q1" s="6">
+      <c r="Q1" s="10">
         <v>44351</v>
       </c>
-      <c r="R1" s="6">
+      <c r="R1" s="10">
         <v>44352</v>
       </c>
-      <c r="S1" s="6">
+      <c r="S1" s="10">
         <v>44353</v>
       </c>
-      <c r="T1" s="6">
+      <c r="T1" s="10">
         <v>44354</v>
       </c>
-      <c r="U1" s="6">
+      <c r="U1" s="10">
         <v>44355</v>
       </c>
-      <c r="V1" s="6">
+      <c r="V1" s="10">
         <v>44356</v>
       </c>
-      <c r="W1" s="6">
+      <c r="W1" s="10">
         <v>44357</v>
       </c>
-      <c r="X1" s="6">
+      <c r="X1" s="10">
         <v>44358</v>
       </c>
     </row>
@@ -1269,7 +1291,7 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="W2" s="8"/>
+      <c r="W2" s="12"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2"/>
@@ -1282,7 +1304,7 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="9" t="s">
         <v>19</v>
       </c>
       <c r="F3" t="s">
@@ -1291,7 +1313,7 @@
       <c r="H3" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="7"/>
+      <c r="J3" s="11"/>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" s="2" t="s">
@@ -1318,7 +1340,7 @@
       <c r="H4" t="s">
         <v>25</v>
       </c>
-      <c r="T4" s="8"/>
+      <c r="T4" s="12"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2"/>
@@ -1343,9 +1365,9 @@
       <c r="H5" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="11"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="2"/>
@@ -1370,9 +1392,9 @@
       <c r="H6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="11"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
@@ -1391,7 +1413,7 @@
       <c r="F7" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="7"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" s="2"/>
@@ -1408,7 +1430,7 @@
       <c r="F8" t="s">
         <v>13</v>
       </c>
-      <c r="T8" s="8"/>
+      <c r="T8" s="12"/>
     </row>
     <row r="9" spans="1:22">
       <c r="A9" s="2"/>
@@ -1427,7 +1449,7 @@
       <c r="H9" t="s">
         <v>29</v>
       </c>
-      <c r="V9" s="8"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>
@@ -1446,7 +1468,7 @@
       <c r="F10" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="7"/>
+      <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
@@ -1465,7 +1487,7 @@
       <c r="F11" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="7"/>
+      <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="2"/>
@@ -1484,7 +1506,7 @@
       <c r="H12" t="s">
         <v>41</v>
       </c>
-      <c r="U12" s="8"/>
+      <c r="U12" s="12"/>
     </row>
     <row r="13" spans="1:22">
       <c r="A13" s="2" t="s">
@@ -1505,7 +1527,7 @@
       <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="V13" s="8"/>
+      <c r="V13" s="12"/>
     </row>
     <row r="14" customFormat="1" spans="1:23">
       <c r="A14" s="2"/>
@@ -1527,7 +1549,7 @@
       <c r="H14" t="s">
         <v>44</v>
       </c>
-      <c r="W14" s="8"/>
+      <c r="W14" s="12"/>
     </row>
     <row r="15" spans="2:21">
       <c r="B15" t="s">
@@ -1545,7 +1567,7 @@
       <c r="F15" t="s">
         <v>13</v>
       </c>
-      <c r="U15" s="8"/>
+      <c r="U15" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1558,4 +1580,270 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:T9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <cols>
+    <col min="2" max="2" width="35.4921875" customWidth="1"/>
+    <col min="5" max="5" width="41.28125" customWidth="1"/>
+    <col min="7" max="7" width="60.546875" customWidth="1"/>
+    <col min="8" max="8" width="22.2265625" customWidth="1"/>
+    <col min="9" max="20" width="9.625"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" spans="1:20">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6">
+        <v>44362</v>
+      </c>
+      <c r="J1" s="6">
+        <v>44363</v>
+      </c>
+      <c r="K1" s="6">
+        <v>44364</v>
+      </c>
+      <c r="L1" s="6">
+        <v>44365</v>
+      </c>
+      <c r="M1" s="8">
+        <v>44366</v>
+      </c>
+      <c r="N1" s="8">
+        <v>44367</v>
+      </c>
+      <c r="O1" s="6">
+        <v>44368</v>
+      </c>
+      <c r="P1" s="6">
+        <v>44369</v>
+      </c>
+      <c r="Q1" s="6">
+        <v>44370</v>
+      </c>
+      <c r="R1" s="6">
+        <v>44371</v>
+      </c>
+      <c r="S1" s="6">
+        <v>44372</v>
+      </c>
+      <c r="T1" s="6">
+        <v>44373</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" spans="1:15">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="7"/>
+    </row>
+    <row r="3" customFormat="1" spans="1:17">
+      <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:20">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" customFormat="1" spans="1:10">
+      <c r="A5" s="2"/>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="7"/>
+    </row>
+    <row r="6" customFormat="1" spans="1:11">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="7"/>
+    </row>
+    <row r="7" customFormat="1" spans="1:18">
+      <c r="A7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="R7" s="7"/>
+    </row>
+    <row r="8" customFormat="1" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" customFormat="1" spans="2:19">
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="S9" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B4:B5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>